--- a/zepp_test_command_list_tag1.0.xlsx
+++ b/zepp_test_command_list_tag1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725"/>
@@ -124,18 +124,6 @@
     <t>inventory.sh</t>
   </si>
   <si>
-    <t>LHF_enable.sh</t>
-  </si>
-  <si>
-    <t>LHF_mute.sh</t>
-  </si>
-  <si>
-    <t>LMF_enable.sh</t>
-  </si>
-  <si>
-    <t>LMF_mute.sh</t>
-  </si>
-  <si>
     <t>loopback_close.sh</t>
   </si>
   <si>
@@ -163,18 +151,6 @@
     <t>nvram_fs.sh</t>
   </si>
   <si>
-    <t>RHF_enable.sh</t>
-  </si>
-  <si>
-    <t>RHF_mute.sh</t>
-  </si>
-  <si>
-    <t>RMF_enable.sh</t>
-  </si>
-  <si>
-    <t>RMF_mute.sh</t>
-  </si>
-  <si>
     <t>r_tone1_disable.sh</t>
   </si>
   <si>
@@ -280,18 +256,6 @@
     <t>./inventory.sh</t>
   </si>
   <si>
-    <t>./LHF_enable.sh</t>
-  </si>
-  <si>
-    <t>./LHF_mute.sh</t>
-  </si>
-  <si>
-    <t>./LMF_enable.sh</t>
-  </si>
-  <si>
-    <t>./LMF_mute.sh</t>
-  </si>
-  <si>
     <t>./loopback_close.sh</t>
   </si>
   <si>
@@ -457,12 +421,6 @@
     <t>adb shell /etc/factory-test/zepp/inventory.sh</t>
   </si>
   <si>
-    <t>adb shell /etc/factory-test/zepp/LHF_enable.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/LHF_mute.sh</t>
-  </si>
-  <si>
     <t>left MR enable</t>
   </si>
   <si>
@@ -470,12 +428,6 @@
   </si>
   <si>
     <t>close mic loopback</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/LMF_enable.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/LMF_mute.sh</t>
   </si>
   <si>
     <t>adb shell /etc/factory-test/zepp/loopback_close.sh</t>
@@ -535,30 +487,12 @@
     <t>adb shell /etc/factory-test/zepp/nvram_fs.sh</t>
   </si>
   <si>
-    <t>adb shell /etc/factory-test/zepp/RHF_enable.sh</t>
-  </si>
-  <si>
-    <t>./RHF_enable.sh</t>
-  </si>
-  <si>
     <t>Right tweeter mute</t>
   </si>
   <si>
     <t>Right tweeter enable</t>
   </si>
   <si>
-    <t>./RHF_mute.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/RHF_mute.sh</t>
-  </si>
-  <si>
-    <t>./RMF_enable.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/RMF_enable.sh</t>
-  </si>
-  <si>
     <t>Right MR enable</t>
   </si>
   <si>
@@ -568,16 +502,10 @@
     <t>./set_assembly.sh  &lt;SN number&gt;</t>
   </si>
   <si>
-    <t>adb shell /etc/factory-test/zepp/RMF_mute.sh</t>
-  </si>
-  <si>
     <t>adb shell /etc/factory-test/zepp/r_tone1_disable.sh</t>
   </si>
   <si>
     <t>adb shell /etc/factory-test/zepp/r_tone1_enable.sh</t>
-  </si>
-  <si>
-    <t>./RMF_mute.sh</t>
   </si>
   <si>
     <t>./nvram_fs.sh</t>
@@ -930,12 +858,108 @@
     <t>adb shell /etc/factory-test/zepp/set_mute_toggle.sh</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>LTW_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./LTW_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/LTW_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/LTW_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./LTW_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTW_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMR_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMR_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./LMR_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./LMR_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/LMR_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/LMR_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTW_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./RTW_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/RTW_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/RTW_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./RTW_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTW_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMR_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMR_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./RMR_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./RMR_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/RMR_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/RMR_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1039,7 +1063,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1055,7 +1079,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1097,7 +1121,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1129,9 +1153,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1163,6 +1188,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1338,14 +1364,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
@@ -1354,7 +1380,7 @@
     <col min="5" max="5" width="64.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1380,7 +1406,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1391,7 +1417,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1400,7 +1426,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1411,7 +1437,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1419,16 +1445,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1436,16 +1462,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1453,13 +1479,13 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="27">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1467,16 +1493,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1484,16 +1510,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1501,16 +1527,16 @@
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1518,16 +1544,16 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1535,16 +1561,16 @@
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1552,16 +1578,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -1569,16 +1595,16 @@
         <v>18</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1586,33 +1612,33 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1620,16 +1646,16 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -1637,16 +1663,16 @@
         <v>21</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1654,16 +1680,16 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1671,16 +1697,16 @@
         <v>23</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1688,16 +1714,16 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1705,16 +1731,16 @@
         <v>25</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1722,16 +1748,16 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1739,16 +1765,16 @@
         <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1756,16 +1782,16 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1773,14 +1799,14 @@
         <v>29</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1788,14 +1814,14 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" ht="27">
+    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1803,16 +1829,16 @@
         <v>31</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1820,16 +1846,16 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1837,14 +1863,14 @@
         <v>33</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -1852,14 +1878,14 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1867,802 +1893,802 @@
         <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="27">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>279</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="D48" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>286</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="16.5" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="10">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="10">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="10">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="10">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D56" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="10">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D58" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="10">
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" t="s">
         <v>198</v>
       </c>
-      <c r="C60" t="s">
-        <v>223</v>
-      </c>
-      <c r="D60" t="s">
-        <v>222</v>
-      </c>
       <c r="E60" s="9"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="10">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C62" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C64" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D64" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="10">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="10">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C66" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D66" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="E66" s="9"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="10">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C68" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="D68" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="10">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="10">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D70" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="10">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="10">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="10">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C74" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D74" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C76" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="D76" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/zepp_test_command_list_tag1.0.xlsx
+++ b/zepp_test_command_list_tag1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="300">
   <si>
     <t>No.</t>
   </si>
@@ -46,9 +46,6 @@
     <t>audio_play_close.sh</t>
   </si>
   <si>
-    <t>audio_play.sh</t>
-  </si>
-  <si>
     <t>bt_paring.sh</t>
   </si>
   <si>
@@ -280,13 +277,7 @@
     <t>close audio play</t>
   </si>
   <si>
-    <t>adb shell /etc/factory-test/zepp/bt_paring.sh</t>
-  </si>
-  <si>
     <t>start BT Paring</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/button_f_check.sh</t>
   </si>
   <si>
     <t xml:space="preserve">button check after run it, push button will get the test result, only avilable for once </t>
@@ -751,9 +742,6 @@
     <t>enter Wifi/BT ftm mode</t>
   </si>
   <si>
-    <t>exit Wifi/BT ftm mode</t>
-  </si>
-  <si>
     <t>dis_ftm.sh</t>
   </si>
   <si>
@@ -770,9 +758,6 @@
   </si>
   <si>
     <t>nohup "./spdif_on.sh &gt; /dev/null" &amp;</t>
-  </si>
-  <si>
-    <t>adb shell nohup "/etc/factory-test/zepp/en_ftm.sh &gt; /dev/null" &amp;</t>
   </si>
   <si>
     <t xml:space="preserve">set country code   </t>
@@ -954,12 +939,68 @@
     <t>adb shell /etc/factory-test/zepp/RMR_mute.sh</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>audio_play.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/button_f_check.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Airleak_100Hz_0dBFS_10sec.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/AirLeak_50Hz_0dBFS_10sec.wav </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Sweep_3s_0dBFS_L_only.wa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/bt_paring.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Sweep_3s_0dBFS_R_only.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Sweep_3s_0dBFS_Stereo.wav.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit Wifi/BT ftm mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell nohup "/etc/factory-test/zepp/en_ftm.sh &gt; /dev/null" &amp;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mclk_patch.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./mclk_patch.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/mclk_patch.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm adsp_loader_dlkm.ko</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -990,7 +1031,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1000,12 +1041,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,7 +1063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1055,15 +1090,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1079,7 +1109,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1121,7 +1151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1153,10 +1183,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1188,7 +1217,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1364,23 +1392,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="3" width="45.375" customWidth="1"/>
-    <col min="4" max="4" width="69.625" customWidth="1"/>
+    <col min="4" max="4" width="99.375" customWidth="1"/>
     <col min="5" max="5" width="64.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1406,7 +1434,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1417,7 +1445,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1426,7 +1454,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1437,7 +1465,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1445,1250 +1473,1312 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27">
+      <c r="A20" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>18</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>20</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>22</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>26</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="27">
+      <c r="A34" s="2">
+        <v>28</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>30</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>32</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39" t="s">
+        <v>264</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>268</v>
+      </c>
+      <c r="C41" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" t="s">
+        <v>272</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>38</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>40</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>42</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="27">
+      <c r="A50" s="2">
+        <v>44</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <v>46</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" t="s">
+        <v>278</v>
+      </c>
+      <c r="D53" t="s">
+        <v>277</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>48</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>281</v>
+      </c>
+      <c r="C55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" t="s">
+        <v>285</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
+        <v>50</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>51</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A58" s="2">
         <v>52</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2">
         <v>54</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" t="s">
+        <v>198</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
         <v>56</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
+        <v>58</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>59</v>
+      </c>
+      <c r="B65" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" t="s">
+        <v>195</v>
+      </c>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2">
         <v>60</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B66" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
         <v>61</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D67" t="s">
+        <v>207</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
+        <v>62</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>63</v>
+      </c>
+      <c r="B69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2">
+        <v>64</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" t="s">
+        <v>218</v>
+      </c>
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2">
+        <v>66</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" t="s">
+        <v>222</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2">
+        <v>68</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>69</v>
+      </c>
+      <c r="B75" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="3" t="s">
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2">
+        <v>70</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2">
+        <v>71</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="15">
-        <v>18</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="10">
-        <v>20</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="10">
-        <v>22</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="2">
         <v>72</v>
       </c>
-      <c r="D26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="10">
-        <v>26</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="14" t="s">
+      <c r="B78" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
         <v>73</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B79" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" t="s">
+        <v>226</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2">
         <v>74</v>
       </c>
-      <c r="D28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="14" t="s">
+      <c r="B80" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
         <v>75</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="10">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" t="s">
+        <v>227</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2">
         <v>76</v>
       </c>
-      <c r="D30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
-        <v>30</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="14" t="s">
+      <c r="B82" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
         <v>77</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B83" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2">
         <v>78</v>
       </c>
-      <c r="D32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B84" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
         <v>79</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>267</v>
-      </c>
-      <c r="C34" t="s">
-        <v>268</v>
-      </c>
-      <c r="D34" t="s">
-        <v>269</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>273</v>
-      </c>
-      <c r="C36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D36" t="s">
-        <v>277</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B85" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2">
         <v>80</v>
       </c>
-      <c r="D38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" t="s">
-        <v>145</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" t="s">
-        <v>283</v>
-      </c>
-      <c r="D48" t="s">
-        <v>282</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>286</v>
-      </c>
-      <c r="C50" t="s">
-        <v>287</v>
-      </c>
-      <c r="D50" t="s">
-        <v>290</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="10">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="10">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" t="s">
-        <v>164</v>
-      </c>
-      <c r="D54" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="10">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="10">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" t="s">
-        <v>200</v>
-      </c>
-      <c r="D56" t="s">
-        <v>201</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="10">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" t="s">
-        <v>190</v>
-      </c>
-      <c r="D58" t="s">
-        <v>191</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="2">
-        <v>58</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="10">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" t="s">
-        <v>199</v>
-      </c>
-      <c r="D60" t="s">
-        <v>198</v>
-      </c>
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="10">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>176</v>
-      </c>
-      <c r="C62" t="s">
-        <v>209</v>
-      </c>
-      <c r="D62" t="s">
-        <v>210</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64" t="s">
-        <v>215</v>
-      </c>
-      <c r="D64" t="s">
-        <v>217</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="10">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="10">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>180</v>
-      </c>
-      <c r="C66" t="s">
-        <v>223</v>
-      </c>
-      <c r="D66" t="s">
-        <v>221</v>
-      </c>
-      <c r="E66" s="9"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="10">
-        <v>66</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>182</v>
-      </c>
-      <c r="C68" t="s">
-        <v>224</v>
-      </c>
-      <c r="D68" t="s">
-        <v>225</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="10">
-        <v>68</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="10">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>184</v>
-      </c>
-      <c r="C70" t="s">
-        <v>203</v>
-      </c>
-      <c r="D70" t="s">
-        <v>205</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="10">
-        <v>70</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="10">
-        <v>71</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="10">
-        <v>72</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>186</v>
-      </c>
-      <c r="C74" t="s">
-        <v>193</v>
-      </c>
-      <c r="D74" t="s">
-        <v>229</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="2">
-        <v>74</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>188</v>
-      </c>
-      <c r="C76" t="s">
-        <v>194</v>
-      </c>
-      <c r="D76" t="s">
-        <v>230</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="2">
-        <v>76</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="2">
-        <v>78</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>241</v>
+      <c r="B86" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/zepp_test_command_list_tag1.0.xlsx
+++ b/zepp_test_command_list_tag1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725"/>
@@ -467,7 +467,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -752,9 +752,6 @@
   </si>
   <si>
     <t>adb shell nohup "/etc/factory-test/zepp/spdif_on.sh &gt; /dev/null" &amp;</t>
-  </si>
-  <si>
-    <t>nohup "./en_ftm.sh &gt; /dev/null" &amp;</t>
   </si>
   <si>
     <t>nohup "./spdif_on.sh &gt; /dev/null" &amp;</t>
@@ -791,7 +788,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -812,206 +809,205 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>device shutdown</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_mute_toggle.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mute_toggle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>check audio serve and exit when it ready.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_shutdown.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_mute_toggle.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTW_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./LTW_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/LTW_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/LTW_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./LTW_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTW_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMR_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMR_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./LMR_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./LMR_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/LMR_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/LMR_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTW_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./RTW_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/RTW_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/RTW_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./RTW_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTW_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMR_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMR_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./RMR_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./RMR_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/RMR_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/RMR_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_play.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/button_f_check.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Airleak_100Hz_0dBFS_10sec.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/AirLeak_50Hz_0dBFS_10sec.wav </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Sweep_3s_0dBFS_L_only.wa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/bt_paring.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Sweep_3s_0dBFS_R_only.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Sweep_3s_0dBFS_Stereo.wav.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit Wifi/BT ftm mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mclk_patch.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/mclk_patch.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm adsp_loader_dlkm.ko</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell nohup "/etc/factory-test/zepp/en_ftm.sh &gt; /dev/null" &amp;</t>
+  </si>
+  <si>
+    <t>./mclk_patch.sh</t>
+  </si>
+  <si>
+    <t>./set_mute_toggle</t>
+  </si>
+  <si>
     <t>./set_shutdown</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>device shutdown</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_mute_toggle.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>./set_mute_toggle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mute_toggle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>check audio serve and exit when it ready.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_shutdown.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_mute_toggle.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTW_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>./LTW_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/LTW_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/LTW_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>./LTW_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTW_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LMR_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LMR_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>./LMR_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>./LMR_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/LMR_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/LMR_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTW_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>./RTW_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/RTW_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/RTW_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>./RTW_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTW_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMR_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMR_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>./RMR_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>./RMR_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/RMR_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/RMR_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>audio_play.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/button_f_check.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Airleak_100Hz_0dBFS_10sec.wav</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/AirLeak_50Hz_0dBFS_10sec.wav </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Sweep_3s_0dBFS_L_only.wa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/bt_paring.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Sweep_3s_0dBFS_R_only.wav</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Sweep_3s_0dBFS_Stereo.wav.wav</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>exit Wifi/BT ftm mode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell nohup "/etc/factory-test/zepp/en_ftm.sh &gt; /dev/null" &amp;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mclk_patch.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>./mclk_patch.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/mclk_patch.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rm adsp_loader_dlkm.ko</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./en_ftm.sh &amp;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1019,15 +1015,21 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1063,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1091,6 +1093,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1151,7 +1156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1183,9 +1188,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1217,6 +1223,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1392,20 +1399,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="45.375" customWidth="1"/>
-    <col min="4" max="4" width="99.375" customWidth="1"/>
-    <col min="5" max="5" width="64.75" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="99.42578125" customWidth="1"/>
+    <col min="5" max="5" width="64.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1487,7 +1494,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>51</v>
@@ -1504,7 +1511,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -1513,7 +1520,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -1522,7 +1529,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -1531,7 +1538,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -1540,7 +1547,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -1552,13 +1559,13 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="27">
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -1569,7 +1576,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>88</v>
@@ -1660,7 +1667,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="27">
+    <row r="20" spans="1:5" ht="30">
       <c r="A20" s="2">
         <v>14</v>
       </c>
@@ -1674,7 +1681,7 @@
         <v>99</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1691,7 +1698,7 @@
         <v>101</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1742,7 +1749,7 @@
         <v>104</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1776,7 +1783,7 @@
         <v>107</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1793,7 +1800,7 @@
         <v>108</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1810,7 +1817,7 @@
         <v>113</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1894,7 +1901,7 @@
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="27">
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>28</v>
       </c>
@@ -1980,13 +1987,13 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C39" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D39" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>129</v>
@@ -1997,13 +2004,13 @@
         <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>130</v>
@@ -2014,13 +2021,13 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
+        <v>265</v>
+      </c>
+      <c r="C41" t="s">
         <v>268</v>
       </c>
-      <c r="C41" t="s">
-        <v>271</v>
-      </c>
       <c r="D41" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>132</v>
@@ -2031,13 +2038,13 @@
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>133</v>
@@ -2162,7 +2169,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="27">
+    <row r="50" spans="1:5">
       <c r="A50" s="2">
         <v>44</v>
       </c>
@@ -2201,13 +2208,13 @@
         <v>46</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>151</v>
@@ -2218,13 +2225,13 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C53" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D53" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>150</v>
@@ -2235,13 +2242,13 @@
         <v>48</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>152</v>
@@ -2252,13 +2259,13 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C55" t="s">
+        <v>279</v>
+      </c>
+      <c r="D55" t="s">
         <v>282</v>
-      </c>
-      <c r="D55" t="s">
-        <v>285</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>153</v>
@@ -2312,7 +2319,7 @@
         <v>160</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2329,7 +2336,7 @@
         <v>162</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2346,7 +2353,7 @@
         <v>164</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2397,7 +2404,7 @@
         <v>188</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2439,7 +2446,7 @@
       <c r="B66" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="15" t="s">
         <v>204</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -2616,33 +2623,33 @@
         <v>71</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
         <v>72</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>261</v>
+      <c r="B78" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2670,7 +2677,7 @@
         <v>184</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>241</v>
@@ -2727,18 +2734,18 @@
         <v>235</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
         <v>78</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>242</v>
+      <c r="C84" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>295</v>
@@ -2751,17 +2758,17 @@
       <c r="A85">
         <v>79</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="14" t="s">
         <v>239</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>240</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2769,16 +2776,16 @@
         <v>80</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/zepp_test_command_list_tag1.0.xlsx
+++ b/zepp_test_command_list_tag1.0.xlsx
@@ -145,9 +145,6 @@
     <t>mic_record.sh</t>
   </si>
   <si>
-    <t>nvram_fs.sh</t>
-  </si>
-  <si>
     <t>r_tone1_disable.sh</t>
   </si>
   <si>
@@ -460,24 +457,6 @@
     <t>start audio record, record files path: /data/factory-test/mic-4ch.wav</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">formal NVRAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> N/A</t>
-    </r>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/nvram_fs.sh</t>
-  </si>
-  <si>
     <t>Right tweeter mute</t>
   </si>
   <si>
@@ -497,9 +476,6 @@
   </si>
   <si>
     <t>adb shell /etc/factory-test/zepp/r_tone1_enable.sh</t>
-  </si>
-  <si>
-    <t>./nvram_fs.sh</t>
   </si>
   <si>
     <t>./r_tone1_disable.sh</t>
@@ -885,111 +861,122 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>adb shell /etc/factory-test/zepp/RTW_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/RTW_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./RTW_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTW_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMR_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMR_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./RMR_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./RMR_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/RMR_enable.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/RMR_mute.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_play.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/button_f_check.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Airleak_100Hz_0dBFS_10sec.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/AirLeak_50Hz_0dBFS_10sec.wav </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Sweep_3s_0dBFS_L_only.wa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/bt_paring.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Sweep_3s_0dBFS_R_only.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Sweep_3s_0dBFS_Stereo.wav.wav</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit Wifi/BT ftm mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mclk_patch.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/mclk_patch.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm adsp_loader_dlkm.ko</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell nohup "/etc/factory-test/zepp/en_ftm.sh &gt; /dev/null" &amp;</t>
+  </si>
+  <si>
+    <t>./mclk_patch.sh</t>
+  </si>
+  <si>
+    <t>./set_mute_toggle</t>
+  </si>
+  <si>
+    <t>./set_shutdown</t>
+  </si>
+  <si>
+    <t>./en_ftm.sh &amp;</t>
+  </si>
+  <si>
+    <t>mic_record_init.sh</t>
+  </si>
+  <si>
+    <t>./mic_record_init.sh</t>
+  </si>
+  <si>
+    <t>initilize audio record, record files path: /data/factory-test/mic-4ch.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adb shell /etc/factory-test/zepp/mic_record_init.sh   </t>
+  </si>
+  <si>
     <t>./RTW_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/RTW_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/RTW_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>./RTW_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTW_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMR_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMR_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>./RMR_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>./RMR_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/RMR_enable.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/RMR_mute.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>audio_play.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/button_f_check.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Airleak_100Hz_0dBFS_10sec.wav</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/AirLeak_50Hz_0dBFS_10sec.wav </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Sweep_3s_0dBFS_L_only.wa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/bt_paring.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Sweep_3s_0dBFS_R_only.wav</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/audio_play.sh /data/product-test/Sweep_3s_0dBFS_Stereo.wav.wav</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>exit Wifi/BT ftm mode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mclk_patch.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/mclk_patch.sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rm adsp_loader_dlkm.ko</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell nohup "/etc/factory-test/zepp/en_ftm.sh &gt; /dev/null" &amp;</t>
-  </si>
-  <si>
-    <t>./mclk_patch.sh</t>
-  </si>
-  <si>
-    <t>./set_mute_toggle</t>
-  </si>
-  <si>
-    <t>./set_shutdown</t>
-  </si>
-  <si>
-    <t>./en_ftm.sh &amp;</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1020,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1052,6 +1039,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1065,7 +1058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1096,6 +1089,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1402,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1476,78 +1472,78 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>283</v>
+      <c r="B7" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -1555,65 +1551,65 @@
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1624,13 +1620,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1641,248 +1637,248 @@
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30">
       <c r="A20" s="2">
         <v>14</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
         <v>15</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>16</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
         <v>17</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>18</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
         <v>19</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>20</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>22</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
         <v>23</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>24</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>26</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E32" s="6"/>
     </row>
@@ -1890,14 +1886,14 @@
       <c r="A33">
         <v>27</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33" s="7"/>
     </row>
@@ -1905,48 +1901,48 @@
       <c r="A34" s="2">
         <v>28</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
         <v>29</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>30</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" s="6"/>
     </row>
@@ -1954,14 +1950,14 @@
       <c r="A37">
         <v>31</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="7"/>
     </row>
@@ -1969,119 +1965,119 @@
       <c r="A38" s="2">
         <v>32</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
         <v>33</v>
       </c>
-      <c r="B39" t="s">
-        <v>259</v>
+      <c r="B39" s="16" t="s">
+        <v>255</v>
       </c>
       <c r="C39" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D39" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>34</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>264</v>
+      <c r="B40" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
         <v>35</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" t="s">
+        <v>264</v>
+      </c>
+      <c r="D41" t="s">
         <v>265</v>
       </c>
-      <c r="C41" t="s">
-        <v>268</v>
-      </c>
-      <c r="D41" t="s">
-        <v>269</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
         <v>36</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="E42" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
         <v>37</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
         <v>38</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2092,13 +2088,13 @@
         <v>37</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2109,166 +2105,166 @@
         <v>38</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
         <v>41</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>42</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
         <v>43</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" t="s">
         <v>144</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
         <v>44</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51">
         <v>45</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>148</v>
+      <c r="B51" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
         <v>46</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>271</v>
+      <c r="B52" s="16" t="s">
+        <v>267</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
         <v>47</v>
       </c>
-      <c r="B53" t="s">
-        <v>276</v>
+      <c r="B53" s="16" t="s">
+        <v>271</v>
       </c>
       <c r="C53" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D53" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
         <v>48</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>277</v>
+      <c r="B54" s="16" t="s">
+        <v>272</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
         <v>49</v>
       </c>
-      <c r="B55" t="s">
-        <v>278</v>
+      <c r="B55" s="16" t="s">
+        <v>273</v>
       </c>
       <c r="C55" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D55" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2276,16 +2272,16 @@
         <v>50</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2293,118 +2289,118 @@
         <v>51</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" customHeight="1">
       <c r="A58" s="2">
         <v>52</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>46</v>
+      <c r="B58" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
         <v>53</v>
       </c>
-      <c r="B59" t="s">
-        <v>47</v>
+      <c r="B59" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
         <v>54</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>48</v>
+      <c r="B60" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
         <v>55</v>
       </c>
-      <c r="B61" t="s">
-        <v>49</v>
+      <c r="B61" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="C61" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D61" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
         <v>56</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>50</v>
+      <c r="B62" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
         <v>57</v>
       </c>
-      <c r="B63" t="s">
-        <v>169</v>
+      <c r="B63" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D63" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2412,30 +2408,30 @@
         <v>58</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="E64" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
         <v>59</v>
       </c>
-      <c r="B65" t="s">
-        <v>171</v>
+      <c r="B65" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C65" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D65" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E65" s="9"/>
     </row>
@@ -2443,14 +2439,14 @@
       <c r="A66" s="2">
         <v>60</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>172</v>
+      <c r="B66" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E66" s="6"/>
     </row>
@@ -2458,65 +2454,65 @@
       <c r="A67">
         <v>61</v>
       </c>
-      <c r="B67" t="s">
-        <v>173</v>
+      <c r="B67" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
         <v>62</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>174</v>
+      <c r="B68" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
         <v>63</v>
       </c>
-      <c r="B69" t="s">
-        <v>175</v>
+      <c r="B69" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="C69" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D69" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
         <v>64</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>176</v>
+      <c r="B70" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E70" s="6"/>
     </row>
@@ -2524,14 +2520,14 @@
       <c r="A71">
         <v>65</v>
       </c>
-      <c r="B71" t="s">
-        <v>177</v>
+      <c r="B71" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="C71" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D71" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E71" s="9"/>
     </row>
@@ -2539,14 +2535,14 @@
       <c r="A72" s="2">
         <v>66</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>178</v>
+      <c r="B72" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E72" s="6"/>
     </row>
@@ -2554,85 +2550,85 @@
       <c r="A73">
         <v>67</v>
       </c>
-      <c r="B73" t="s">
-        <v>179</v>
+      <c r="B73" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D73" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
         <v>68</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>180</v>
+      <c r="B74" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
         <v>69</v>
       </c>
-      <c r="B75" t="s">
-        <v>181</v>
+      <c r="B75" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="C75" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D75" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
         <v>70</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>182</v>
+      <c r="B76" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
         <v>71</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>252</v>
+      <c r="B77" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2640,152 +2636,152 @@
         <v>72</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="E78" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
         <v>73</v>
       </c>
-      <c r="B79" t="s">
-        <v>183</v>
+      <c r="B79" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D79" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
         <v>74</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>184</v>
+      <c r="B80" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
         <v>75</v>
       </c>
-      <c r="B81" t="s">
-        <v>185</v>
+      <c r="B81" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D81" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
         <v>76</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>186</v>
+      <c r="B82" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
         <v>77</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="E83" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
         <v>78</v>
       </c>
-      <c r="B84" s="13" t="s">
-        <v>236</v>
+      <c r="B84" s="17" t="s">
+        <v>232</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
         <v>79</v>
       </c>
-      <c r="B85" s="14" t="s">
-        <v>238</v>
+      <c r="B85" s="17" t="s">
+        <v>234</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
         <v>80</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>292</v>
+      <c r="B86" s="16" t="s">
+        <v>287</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
